--- a/xlsx/outdoor.xlsx
+++ b/xlsx/outdoor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bd6ffaf480ac5cc/Office/pokeyellowCHS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Developer/PKMN_G1/pokeyellowCHS/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{F90DAA8F-C29F-2240-B5AF-438B9E5A709F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15758FCE-0666-7643-9BBF-E3932A591405}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331DF8C8-5F5D-8543-921D-F728C3A169CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6800" yWindow="760" windowWidth="27760" windowHeight="18600" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1460" yWindow="2060" windowWidth="27760" windowHeight="18600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PalletTown" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7660" uniqueCount="3023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7660" uniqueCount="3025">
   <si>
     <t>text/PalletTown.asm</t>
   </si>
@@ -9233,6 +9233,14 @@
   </si>
   <si>
     <t>NELO, SYLVEON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在这儿转来转去的，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是要干什么呀？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9329,10 +9337,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20767,8 +20771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O237"/>
   <sheetViews>
-    <sheetView topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="G202" sqref="G202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -20898,7 +20902,7 @@
         <v>47</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1004</v>
+        <v>3023</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>47</v>
@@ -20927,7 +20931,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1007</v>
+        <v>3024</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>17</v>
@@ -33683,7 +33687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
